--- a/IPL/Gujarat Titans/Sai Sudharsan.xlsx
+++ b/IPL/Gujarat Titans/Sai Sudharsan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,28 +445,31 @@
         <v>Sai Sudharsan</v>
       </c>
       <c r="C2" t="str">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D2" t="str">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E2" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>122.22</v>
+        <v>130.55</v>
       </c>
       <c r="H2" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J2" t="str">
-        <v>April 11 2022</v>
+        <v>May 15 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,28 +480,31 @@
         <v>Sai Sudharsan</v>
       </c>
       <c r="C3" t="str">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D3" t="str">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="str">
-        <v>130.00</v>
+        <v>204.25</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J3" t="str">
-        <v>May 03 2022</v>
+        <v>May 28 - 29 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,10 +515,10 @@
         <v>Sai Sudharsan</v>
       </c>
       <c r="C4" t="str">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D4" t="str">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E4" t="str">
         <v>5</v>
@@ -521,19 +527,19 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>130.00</v>
+        <v>138.70</v>
       </c>
       <c r="H4" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J4" t="str">
-        <v>May 03 2022</v>
+        <v>May 26 2023</v>
       </c>
       <c r="K4" t="str">
-        <v>Punjab Kings won by 8 wickets (with 24 balls remaining)</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -544,10 +550,10 @@
         <v>Sai Sudharsan</v>
       </c>
       <c r="C5" t="str">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" t="str">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5" t="str">
         <v>2</v>
@@ -556,24 +562,59 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>122.22</v>
+        <v>105.26</v>
       </c>
       <c r="H5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J5" t="str">
-        <v>April 11 2022</v>
+        <v>April 16 2023</v>
       </c>
       <c r="K5" t="str">
-        <v>Sunrisers won by 8 wickets (with 5 balls remaining)</v>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Gujarat Titans</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Sai Sudharsan</v>
+      </c>
+      <c r="C6" t="str">
+        <v>53</v>
+      </c>
+      <c r="D6" t="str">
+        <v>38</v>
+      </c>
+      <c r="E6" t="str">
+        <v>3</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <v>139.47</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Ahmedabad</v>
+      </c>
+      <c r="J6" t="str">
+        <v>April 09 2023</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>